--- a/USGIF_test/Mars_features.xlsx
+++ b/USGIF_test/Mars_features.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Documents\USGIF_Event\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llovato\Desktop\GIS_5091\advanced_class\USGIF_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066942F7-809C-4E6E-A166-2DB6D0422BA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="4080" xr2:uid="{4D4C7618-CBA2-434B-BF00-805174248FE6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Feature Name</t>
   </si>
@@ -180,12 +179,24 @@
   </si>
   <si>
     <t>Noctis Labyrinthus</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>http://sci.esa.int/rosetta/53742-mars-3d-anaglyph-colour/</t>
+  </si>
+  <si>
+    <t>http://sci.esa.int/science-e-media/img/ee/Rosetta_Mars_3D_anaglyph_colour.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars, taken from Rosetta satellite in 2007. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,20 +552,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA089D01-9C8A-4B4E-BDA2-EB47268915A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="129" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -594,7 +605,7 @@
         <v>-2.05225838</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -614,7 +625,7 @@
         <v>-2.3179741318897502</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -634,7 +645,7 @@
         <v>-2.2836434859999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -654,7 +665,7 @@
         <v>-2.2836434859999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -674,7 +685,7 @@
         <v>137.381695041771</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -694,7 +705,7 @@
         <v>137.84483742815101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -714,7 +725,7 @@
         <v>-15.30753075</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -734,7 +745,7 @@
         <v>40.39667309</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -754,7 +765,7 @@
         <v>-139.39997854999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -774,26 +785,49 @@
         <v>-6.3624833919999997</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>19.757989999999999</v>
+      </c>
+      <c r="F12">
+        <v>34.816079999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{EBBD9B4B-C9DB-401C-A627-1540F444FD9B}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
+    <hyperlink ref="A18" r:id="rId3"/>
+    <hyperlink ref="A19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>